--- a/Results/Opinion/PRICES.xlsx
+++ b/Results/Opinion/PRICES.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>opini</t>
   </si>
@@ -37,45 +37,27 @@
     <t>best</t>
   </si>
   <si>
-    <t>bland</t>
-  </si>
-  <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>complimentary</t>
-  </si>
-  <si>
     <t>deff</t>
   </si>
   <si>
-    <t>delish</t>
-  </si>
-  <si>
     <t>enough</t>
   </si>
   <si>
     <t>extensive</t>
   </si>
   <si>
-    <t>extra</t>
-  </si>
-  <si>
     <t>fair</t>
   </si>
   <si>
-    <t>fishy</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
     <t>high</t>
   </si>
   <si>
@@ -91,39 +73,15 @@
     <t>interesting</t>
   </si>
   <si>
-    <t>large</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
     <t>mortal</t>
   </si>
   <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>only</t>
   </si>
   <si>
-    <t>other</t>
-  </si>
-  <si>
     <t>overpriced</t>
   </si>
   <si>
-    <t>plain</t>
-  </si>
-  <si>
     <t>plentiful</t>
   </si>
   <si>
@@ -131,9 +89,6 @@
   </si>
   <si>
     <t>reasonable</t>
-  </si>
-  <si>
-    <t>such</t>
   </si>
   <si>
     <t>tasteless</t>
@@ -512,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +489,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -545,7 +500,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -556,7 +511,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -567,7 +522,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -578,7 +533,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -589,7 +544,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -600,7 +555,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -611,7 +566,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -622,7 +577,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -633,7 +588,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -644,7 +599,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -655,7 +610,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -666,7 +621,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -677,7 +632,7 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -688,7 +643,7 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -699,7 +654,7 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -710,7 +665,7 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -721,7 +676,7 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -732,7 +687,7 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -743,7 +698,7 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -754,7 +709,7 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -765,7 +720,7 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -776,7 +731,7 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -787,7 +742,7 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -798,7 +753,7 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -809,7 +764,7 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -820,7 +775,7 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -831,172 +786,7 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>42</v>
-      </c>
-      <c r="C42" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Opinion/PRICES.xlsx
+++ b/Results/Opinion/PRICES.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="44">
   <si>
     <t>opini</t>
   </si>
@@ -37,21 +37,36 @@
     <t>best</t>
   </si>
   <si>
+    <t>bland</t>
+  </si>
+  <si>
     <t>cheap</t>
   </si>
   <si>
+    <t>complimentary</t>
+  </si>
+  <si>
     <t>deff</t>
   </si>
   <si>
+    <t>delish</t>
+  </si>
+  <si>
     <t>enough</t>
   </si>
   <si>
     <t>extensive</t>
   </si>
   <si>
+    <t>extra</t>
+  </si>
+  <si>
     <t>fair</t>
   </si>
   <si>
+    <t>fishy</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
@@ -73,15 +88,33 @@
     <t>interesting</t>
   </si>
   <si>
+    <t>large</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
     <t>mortal</t>
   </si>
   <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
     <t>only</t>
   </si>
   <si>
     <t>overpriced</t>
   </si>
   <si>
+    <t>plain</t>
+  </si>
+  <si>
     <t>plentiful</t>
   </si>
   <si>
@@ -89,6 +122,9 @@
   </si>
   <si>
     <t>reasonable</t>
+  </si>
+  <si>
+    <t>such</t>
   </si>
   <si>
     <t>tasteless</t>
@@ -467,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -489,7 +525,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -500,7 +536,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -511,7 +547,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -522,7 +558,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -533,7 +569,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -544,7 +580,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -555,7 +591,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -566,7 +602,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -577,7 +613,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -588,7 +624,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -599,7 +635,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -610,7 +646,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -621,7 +657,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -632,7 +668,7 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -643,7 +679,7 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -654,7 +690,7 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -665,7 +701,7 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -676,7 +712,7 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -687,7 +723,7 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -698,7 +734,7 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -709,7 +745,7 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -720,7 +756,7 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -731,7 +767,7 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -742,7 +778,7 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -753,7 +789,7 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -764,7 +800,7 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -775,7 +811,7 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -786,7 +822,139 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
         <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
